--- a/HW1/student.xlsx
+++ b/HW1/student.xlsx
@@ -2462,7 +2462,7 @@
       </c>
       <c r="H67" s="0" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C+</t>
         </is>
       </c>
     </row>

--- a/HW1/student.xlsx
+++ b/HW1/student.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -439,7 +439,7 @@
   <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H75"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.07421875" defaultRowHeight="17.5"/>
